--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Liph</t>
+  </si>
+  <si>
+    <t>Lpar2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Liph</t>
-  </si>
-  <si>
-    <t>Lpar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,40 +549,40 @@
         <v>0.216204</v>
       </c>
       <c r="I2">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J2">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03340133333333333</v>
+        <v>0.188801</v>
       </c>
       <c r="N2">
-        <v>0.100204</v>
+        <v>0.566403</v>
       </c>
       <c r="O2">
-        <v>0.004187005424504452</v>
+        <v>0.02027014549764661</v>
       </c>
       <c r="P2">
-        <v>0.004187005424504453</v>
+        <v>0.02027014549764661</v>
       </c>
       <c r="Q2">
-        <v>0.002407167290666667</v>
+        <v>0.013606510468</v>
       </c>
       <c r="R2">
-        <v>0.021664505616</v>
+        <v>0.122458594212</v>
       </c>
       <c r="S2">
-        <v>0.001247137630947511</v>
+        <v>0.005247764124908771</v>
       </c>
       <c r="T2">
-        <v>0.001247137630947511</v>
+        <v>0.00524776412490877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.216204</v>
       </c>
       <c r="I3">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J3">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,10 +629,10 @@
         <v>0.5908180000000001</v>
       </c>
       <c r="O3">
-        <v>0.0246872197805963</v>
+        <v>0.02114389722976146</v>
       </c>
       <c r="P3">
-        <v>0.02468721978059631</v>
+        <v>0.02114389722976145</v>
       </c>
       <c r="Q3">
         <v>0.01419302387466667</v>
@@ -641,10 +641,10 @@
         <v>0.127737214872</v>
       </c>
       <c r="S3">
-        <v>0.007353312850197066</v>
+        <v>0.005473970838343637</v>
       </c>
       <c r="T3">
-        <v>0.007353312850197067</v>
+        <v>0.005473970838343636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.216204</v>
       </c>
       <c r="I4">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J4">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.560045333333333</v>
+        <v>1.334984</v>
       </c>
       <c r="N4">
-        <v>4.680136</v>
+        <v>4.004952</v>
       </c>
       <c r="O4">
-        <v>0.1955586086325752</v>
+        <v>0.143327206513897</v>
       </c>
       <c r="P4">
-        <v>0.1955586086325753</v>
+        <v>0.143327206513897</v>
       </c>
       <c r="Q4">
-        <v>0.1124293470826667</v>
+        <v>0.09620962691200002</v>
       </c>
       <c r="R4">
-        <v>1.011864123744</v>
+        <v>0.865886642208</v>
       </c>
       <c r="S4">
-        <v>0.05824890946022276</v>
+        <v>0.03710616544683138</v>
       </c>
       <c r="T4">
-        <v>0.05824890946022277</v>
+        <v>0.03710616544683137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,40 +735,40 @@
         <v>0.216204</v>
       </c>
       <c r="I5">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J5">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.330627</v>
+        <v>0.3823306666666667</v>
       </c>
       <c r="N5">
-        <v>0.991881</v>
+        <v>1.146992</v>
       </c>
       <c r="O5">
-        <v>0.04144556232748095</v>
+        <v>0.04104797242358654</v>
       </c>
       <c r="P5">
-        <v>0.04144556232748095</v>
+        <v>0.04104797242358654</v>
       </c>
       <c r="Q5">
-        <v>0.023827626636</v>
+        <v>0.02755380648533334</v>
       </c>
       <c r="R5">
-        <v>0.214448639724</v>
+        <v>0.247984258368</v>
       </c>
       <c r="S5">
-        <v>0.01234493753265188</v>
+        <v>0.01062696254991121</v>
       </c>
       <c r="T5">
-        <v>0.01234493753265188</v>
+        <v>0.01062696254991121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.216204</v>
       </c>
       <c r="I6">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J6">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.093518666666667</v>
+        <v>5.59647</v>
       </c>
       <c r="N6">
-        <v>12.280556</v>
+        <v>16.78941</v>
       </c>
       <c r="O6">
-        <v>0.5131407387722118</v>
+        <v>0.6008509550967122</v>
       </c>
       <c r="P6">
-        <v>0.5131407387722118</v>
+        <v>0.6008509550967122</v>
       </c>
       <c r="Q6">
-        <v>0.2950117032693334</v>
+        <v>0.40332639996</v>
       </c>
       <c r="R6">
-        <v>2.655105329424</v>
+        <v>3.62993759964</v>
       </c>
       <c r="S6">
-        <v>0.1528436341519126</v>
+        <v>0.1555550791157261</v>
       </c>
       <c r="T6">
-        <v>0.1528436341519126</v>
+        <v>0.1555550791157261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.216204</v>
       </c>
       <c r="I7">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="J7">
-        <v>0.2978590912848207</v>
+        <v>0.2588912904210797</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.762848333333333</v>
+        <v>1.614715</v>
       </c>
       <c r="N7">
-        <v>5.288544999999999</v>
+        <v>4.844145</v>
       </c>
       <c r="O7">
-        <v>0.2209808650626312</v>
+        <v>0.1733598232383963</v>
       </c>
       <c r="P7">
-        <v>0.2209808650626312</v>
+        <v>0.1733598232383963</v>
       </c>
       <c r="Q7">
-        <v>0.1270449536866667</v>
+        <v>0.11636928062</v>
       </c>
       <c r="R7">
-        <v>1.14340458318</v>
+        <v>1.04732352558</v>
       </c>
       <c r="S7">
-        <v>0.06582115965888892</v>
+        <v>0.04488134834535869</v>
       </c>
       <c r="T7">
-        <v>0.06582115965888892</v>
+        <v>0.04488134834535869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1793606666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.5380820000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.6443208420397192</v>
+      </c>
+      <c r="J8">
+        <v>0.6443208420397191</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.069697</v>
-      </c>
-      <c r="H8">
-        <v>0.209091</v>
-      </c>
-      <c r="I8">
-        <v>0.2880596809302069</v>
-      </c>
-      <c r="J8">
-        <v>0.2880596809302068</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.03340133333333333</v>
+        <v>0.188801</v>
       </c>
       <c r="N8">
-        <v>0.100204</v>
+        <v>0.566403</v>
       </c>
       <c r="O8">
-        <v>0.004187005424504452</v>
+        <v>0.02027014549764661</v>
       </c>
       <c r="P8">
-        <v>0.004187005424504453</v>
+        <v>0.02027014549764661</v>
       </c>
       <c r="Q8">
-        <v>0.002327972729333333</v>
+        <v>0.03386347322733334</v>
       </c>
       <c r="R8">
-        <v>0.020951754564</v>
+        <v>0.3047712590460001</v>
       </c>
       <c r="S8">
-        <v>0.001206107446635798</v>
+        <v>0.01306047721531129</v>
       </c>
       <c r="T8">
-        <v>0.001206107446635798</v>
+        <v>0.01306047721531129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H9">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I9">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J9">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.5908180000000001</v>
       </c>
       <c r="O9">
-        <v>0.0246872197805963</v>
+        <v>0.02114389722976146</v>
       </c>
       <c r="P9">
-        <v>0.02468721978059631</v>
+        <v>0.02114389722976145</v>
       </c>
       <c r="Q9">
-        <v>0.01372608071533333</v>
+        <v>0.03532317011955557</v>
       </c>
       <c r="R9">
-        <v>0.123534726438</v>
+        <v>0.3179085310760001</v>
       </c>
       <c r="S9">
-        <v>0.007111392653052463</v>
+        <v>0.01362345366708119</v>
       </c>
       <c r="T9">
-        <v>0.007111392653052463</v>
+        <v>0.01362345366708118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H10">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I10">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J10">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.560045333333333</v>
+        <v>1.334984</v>
       </c>
       <c r="N10">
-        <v>4.680136</v>
+        <v>4.004952</v>
       </c>
       <c r="O10">
-        <v>0.1955586086325752</v>
+        <v>0.143327206513897</v>
       </c>
       <c r="P10">
-        <v>0.1955586086325753</v>
+        <v>0.143327206513897</v>
       </c>
       <c r="Q10">
-        <v>0.1087304795973333</v>
+        <v>0.2394436202293334</v>
       </c>
       <c r="R10">
-        <v>0.9785743163759999</v>
+        <v>2.154992582064001</v>
       </c>
       <c r="S10">
-        <v>0.05633255040585482</v>
+        <v>0.09234870638823485</v>
       </c>
       <c r="T10">
-        <v>0.05633255040585482</v>
+        <v>0.09234870638823482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H11">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I11">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J11">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.330627</v>
+        <v>0.3823306666666667</v>
       </c>
       <c r="N11">
-        <v>0.991881</v>
+        <v>1.146992</v>
       </c>
       <c r="O11">
-        <v>0.04144556232748095</v>
+        <v>0.04104797242358654</v>
       </c>
       <c r="P11">
-        <v>0.04144556232748095</v>
+        <v>0.04104797242358654</v>
       </c>
       <c r="Q11">
-        <v>0.023043710019</v>
+        <v>0.06857508326044445</v>
       </c>
       <c r="R11">
-        <v>0.207393390171</v>
+        <v>0.6171757493440001</v>
       </c>
       <c r="S11">
-        <v>0.01193879546002717</v>
+        <v>0.02644806415598845</v>
       </c>
       <c r="T11">
-        <v>0.01193879546002716</v>
+        <v>0.02644806415598844</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H12">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I12">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J12">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.093518666666667</v>
+        <v>5.59647</v>
       </c>
       <c r="N12">
-        <v>12.280556</v>
+        <v>16.78941</v>
       </c>
       <c r="O12">
-        <v>0.5131407387722118</v>
+        <v>0.6008509550967122</v>
       </c>
       <c r="P12">
-        <v>0.5131407387722118</v>
+        <v>0.6008509550967122</v>
       </c>
       <c r="Q12">
-        <v>0.2853059705106667</v>
+        <v>1.00378659018</v>
       </c>
       <c r="R12">
-        <v>2.567753734596</v>
+        <v>9.034079311620001</v>
       </c>
       <c r="S12">
-        <v>0.147815157483014</v>
+        <v>0.3871407933282831</v>
       </c>
       <c r="T12">
-        <v>0.1478151574830139</v>
+        <v>0.387140793328283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.069697</v>
+        <v>0.1793606666666667</v>
       </c>
       <c r="H13">
-        <v>0.209091</v>
+        <v>0.5380820000000001</v>
       </c>
       <c r="I13">
-        <v>0.2880596809302069</v>
+        <v>0.6443208420397192</v>
       </c>
       <c r="J13">
-        <v>0.2880596809302068</v>
+        <v>0.6443208420397191</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.762848333333333</v>
+        <v>1.614715</v>
       </c>
       <c r="N13">
-        <v>5.288544999999999</v>
+        <v>4.844145</v>
       </c>
       <c r="O13">
-        <v>0.2209808650626312</v>
+        <v>0.1733598232383963</v>
       </c>
       <c r="P13">
-        <v>0.2209808650626312</v>
+        <v>0.1733598232383963</v>
       </c>
       <c r="Q13">
-        <v>0.1228652402883333</v>
+        <v>0.2896163588766668</v>
       </c>
       <c r="R13">
-        <v>1.105787162595</v>
+        <v>2.60654722989</v>
       </c>
       <c r="S13">
-        <v>0.06365567748162265</v>
+        <v>0.1116993472848204</v>
       </c>
       <c r="T13">
-        <v>0.06365567748162264</v>
+        <v>0.1116993472848203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H14">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I14">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J14">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03340133333333333</v>
+        <v>0.188801</v>
       </c>
       <c r="N14">
-        <v>0.100204</v>
+        <v>0.566403</v>
       </c>
       <c r="O14">
-        <v>0.004187005424504452</v>
+        <v>0.02027014549764661</v>
       </c>
       <c r="P14">
-        <v>0.004187005424504453</v>
+        <v>0.02027014549764661</v>
       </c>
       <c r="Q14">
-        <v>0.002411231119555555</v>
+        <v>0.005086865342999999</v>
       </c>
       <c r="R14">
-        <v>0.021701080076</v>
+        <v>0.045781788087</v>
       </c>
       <c r="S14">
-        <v>0.001249243074118294</v>
+        <v>0.001961904157426556</v>
       </c>
       <c r="T14">
-        <v>0.001249243074118294</v>
+        <v>0.001961904157426555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H15">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I15">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J15">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.5908180000000001</v>
       </c>
       <c r="O15">
-        <v>0.0246872197805963</v>
+        <v>0.02114389722976146</v>
       </c>
       <c r="P15">
-        <v>0.02468721978059631</v>
+        <v>0.02114389722976145</v>
       </c>
       <c r="Q15">
-        <v>0.01421698482688889</v>
+        <v>0.005306136458</v>
       </c>
       <c r="R15">
-        <v>0.127952863442</v>
+        <v>0.047755228122</v>
       </c>
       <c r="S15">
-        <v>0.00736572686284402</v>
+        <v>0.002046472724336635</v>
       </c>
       <c r="T15">
-        <v>0.007365726862844021</v>
+        <v>0.002046472724336635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H16">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I16">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J16">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.560045333333333</v>
+        <v>1.334984</v>
       </c>
       <c r="N16">
-        <v>4.680136</v>
+        <v>4.004952</v>
       </c>
       <c r="O16">
-        <v>0.1955586086325752</v>
+        <v>0.143327206513897</v>
       </c>
       <c r="P16">
-        <v>0.1955586086325753</v>
+        <v>0.143327206513897</v>
       </c>
       <c r="Q16">
-        <v>0.1126191525982222</v>
+        <v>0.035968473912</v>
       </c>
       <c r="R16">
-        <v>1.013572373384</v>
+        <v>0.323716265208</v>
       </c>
       <c r="S16">
-        <v>0.05834724645654559</v>
+        <v>0.0138723346788308</v>
       </c>
       <c r="T16">
-        <v>0.0583472464565456</v>
+        <v>0.0138723346788308</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,46 +1473,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H17">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I17">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J17">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.330627</v>
+        <v>0.3823306666666667</v>
       </c>
       <c r="N17">
-        <v>0.991881</v>
+        <v>1.146992</v>
       </c>
       <c r="O17">
-        <v>0.04144556232748095</v>
+        <v>0.04104797242358654</v>
       </c>
       <c r="P17">
-        <v>0.04144556232748095</v>
+        <v>0.04104797242358654</v>
       </c>
       <c r="Q17">
-        <v>0.023867852921</v>
+        <v>0.010301135152</v>
       </c>
       <c r="R17">
-        <v>0.214810676289</v>
+        <v>0.092710216368</v>
       </c>
       <c r="S17">
-        <v>0.01236577850783928</v>
+        <v>0.003972945717686876</v>
       </c>
       <c r="T17">
-        <v>0.01236577850783928</v>
+        <v>0.003972945717686876</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H18">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I18">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J18">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.093518666666667</v>
+        <v>5.59647</v>
       </c>
       <c r="N18">
-        <v>12.280556</v>
+        <v>16.78941</v>
       </c>
       <c r="O18">
-        <v>0.5131407387722118</v>
+        <v>0.6008509550967122</v>
       </c>
       <c r="P18">
-        <v>0.5131407387722118</v>
+        <v>0.6008509550967122</v>
       </c>
       <c r="Q18">
-        <v>0.2955097480404445</v>
+        <v>0.15078569121</v>
       </c>
       <c r="R18">
-        <v>2.659587732364</v>
+        <v>1.35707122089</v>
       </c>
       <c r="S18">
-        <v>0.1531016678907215</v>
+        <v>0.05815508265270308</v>
       </c>
       <c r="T18">
-        <v>0.1531016678907215</v>
+        <v>0.0581550826527031</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07218966666666667</v>
+        <v>0.026943</v>
       </c>
       <c r="H19">
-        <v>0.216569</v>
+        <v>0.080829</v>
       </c>
       <c r="I19">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920117</v>
       </c>
       <c r="J19">
-        <v>0.298361943074422</v>
+        <v>0.09678786753920118</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.762848333333333</v>
+        <v>1.614715</v>
       </c>
       <c r="N19">
-        <v>5.288544999999999</v>
+        <v>4.844145</v>
       </c>
       <c r="O19">
-        <v>0.2209808650626312</v>
+        <v>0.1733598232383963</v>
       </c>
       <c r="P19">
-        <v>0.2209808650626312</v>
+        <v>0.1733598232383963</v>
       </c>
       <c r="Q19">
-        <v>0.1272594335672222</v>
+        <v>0.043505266245</v>
       </c>
       <c r="R19">
-        <v>1.145334902105</v>
+        <v>0.391547396205</v>
       </c>
       <c r="S19">
-        <v>0.0659322802823533</v>
+        <v>0.01677912760821723</v>
       </c>
       <c r="T19">
-        <v>0.0659322802823533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.016601</v>
-      </c>
-      <c r="H20">
-        <v>0.049803</v>
-      </c>
-      <c r="I20">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J20">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.03340133333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.100204</v>
-      </c>
-      <c r="O20">
-        <v>0.004187005424504452</v>
-      </c>
-      <c r="P20">
-        <v>0.004187005424504453</v>
-      </c>
-      <c r="Q20">
-        <v>0.0005544955346666666</v>
-      </c>
-      <c r="R20">
-        <v>0.004990459812</v>
-      </c>
-      <c r="S20">
-        <v>0.000287280510231443</v>
-      </c>
-      <c r="T20">
-        <v>0.0002872805102314431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.016601</v>
-      </c>
-      <c r="H21">
-        <v>0.049803</v>
-      </c>
-      <c r="I21">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J21">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.1969393333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.5908180000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.0246872197805963</v>
-      </c>
-      <c r="P21">
-        <v>0.02468721978059631</v>
-      </c>
-      <c r="Q21">
-        <v>0.003269389872666667</v>
-      </c>
-      <c r="R21">
-        <v>0.029424508854</v>
-      </c>
-      <c r="S21">
-        <v>0.00169384951193486</v>
-      </c>
-      <c r="T21">
-        <v>0.00169384951193486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.016601</v>
-      </c>
-      <c r="H22">
-        <v>0.049803</v>
-      </c>
-      <c r="I22">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J22">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.560045333333333</v>
-      </c>
-      <c r="N22">
-        <v>4.680136</v>
-      </c>
-      <c r="O22">
-        <v>0.1955586086325752</v>
-      </c>
-      <c r="P22">
-        <v>0.1955586086325753</v>
-      </c>
-      <c r="Q22">
-        <v>0.02589831257866667</v>
-      </c>
-      <c r="R22">
-        <v>0.233084813208</v>
-      </c>
-      <c r="S22">
-        <v>0.01341774637771491</v>
-      </c>
-      <c r="T22">
-        <v>0.01341774637771491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.016601</v>
-      </c>
-      <c r="H23">
-        <v>0.049803</v>
-      </c>
-      <c r="I23">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J23">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.330627</v>
-      </c>
-      <c r="N23">
-        <v>0.991881</v>
-      </c>
-      <c r="O23">
-        <v>0.04144556232748095</v>
-      </c>
-      <c r="P23">
-        <v>0.04144556232748095</v>
-      </c>
-      <c r="Q23">
-        <v>0.005488738827000001</v>
-      </c>
-      <c r="R23">
-        <v>0.049398649443</v>
-      </c>
-      <c r="S23">
-        <v>0.002843679691118857</v>
-      </c>
-      <c r="T23">
-        <v>0.002843679691118857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.016601</v>
-      </c>
-      <c r="H24">
-        <v>0.049803</v>
-      </c>
-      <c r="I24">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J24">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>4.093518666666667</v>
-      </c>
-      <c r="N24">
-        <v>12.280556</v>
-      </c>
-      <c r="O24">
-        <v>0.5131407387722118</v>
-      </c>
-      <c r="P24">
-        <v>0.5131407387722118</v>
-      </c>
-      <c r="Q24">
-        <v>0.06795650338533335</v>
-      </c>
-      <c r="R24">
-        <v>0.611608530468</v>
-      </c>
-      <c r="S24">
-        <v>0.03520781998329218</v>
-      </c>
-      <c r="T24">
-        <v>0.03520781998329218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.016601</v>
-      </c>
-      <c r="H25">
-        <v>0.049803</v>
-      </c>
-      <c r="I25">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="J25">
-        <v>0.06861240459592759</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.762848333333333</v>
-      </c>
-      <c r="N25">
-        <v>5.288544999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.2209808650626312</v>
-      </c>
-      <c r="P25">
-        <v>0.2209808650626312</v>
-      </c>
-      <c r="Q25">
-        <v>0.02926504518166666</v>
-      </c>
-      <c r="R25">
-        <v>0.263385406635</v>
-      </c>
-      <c r="S25">
-        <v>0.01516202852163533</v>
-      </c>
-      <c r="T25">
-        <v>0.01516202852163533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.034193</v>
-      </c>
-      <c r="I26">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J26">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03340133333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.100204</v>
-      </c>
-      <c r="O26">
-        <v>0.004187005424504452</v>
-      </c>
-      <c r="P26">
-        <v>0.004187005424504453</v>
-      </c>
-      <c r="Q26">
-        <v>0.0003806972635555556</v>
-      </c>
-      <c r="R26">
-        <v>0.003426275372</v>
-      </c>
-      <c r="S26">
-        <v>0.000197236762571406</v>
-      </c>
-      <c r="T26">
-        <v>0.000197236762571406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.034193</v>
-      </c>
-      <c r="I27">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J27">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M27">
-        <v>0.1969393333333334</v>
-      </c>
-      <c r="N27">
-        <v>0.5908180000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.0246872197805963</v>
-      </c>
-      <c r="P27">
-        <v>0.02468721978059631</v>
-      </c>
-      <c r="Q27">
-        <v>0.002244648874888889</v>
-      </c>
-      <c r="R27">
-        <v>0.020201839874</v>
-      </c>
-      <c r="S27">
-        <v>0.001162937902567891</v>
-      </c>
-      <c r="T27">
-        <v>0.001162937902567891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.034193</v>
-      </c>
-      <c r="I28">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J28">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.560045333333333</v>
-      </c>
-      <c r="N28">
-        <v>4.680136</v>
-      </c>
-      <c r="O28">
-        <v>0.1955586086325752</v>
-      </c>
-      <c r="P28">
-        <v>0.1955586086325753</v>
-      </c>
-      <c r="Q28">
-        <v>0.01778087669422222</v>
-      </c>
-      <c r="R28">
-        <v>0.160027890248</v>
-      </c>
-      <c r="S28">
-        <v>0.009212155932237133</v>
-      </c>
-      <c r="T28">
-        <v>0.009212155932237134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.034193</v>
-      </c>
-      <c r="I29">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J29">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.330627</v>
-      </c>
-      <c r="N29">
-        <v>0.991881</v>
-      </c>
-      <c r="O29">
-        <v>0.04144556232748095</v>
-      </c>
-      <c r="P29">
-        <v>0.04144556232748095</v>
-      </c>
-      <c r="Q29">
-        <v>0.003768376337</v>
-      </c>
-      <c r="R29">
-        <v>0.033915387033</v>
-      </c>
-      <c r="S29">
-        <v>0.001952371135843766</v>
-      </c>
-      <c r="T29">
-        <v>0.001952371135843766</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.034193</v>
-      </c>
-      <c r="I30">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J30">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>4.093518666666667</v>
-      </c>
-      <c r="N30">
-        <v>12.280556</v>
-      </c>
-      <c r="O30">
-        <v>0.5131407387722118</v>
-      </c>
-      <c r="P30">
-        <v>0.5131407387722118</v>
-      </c>
-      <c r="Q30">
-        <v>0.04665656125644446</v>
-      </c>
-      <c r="R30">
-        <v>0.419909051308</v>
-      </c>
-      <c r="S30">
-        <v>0.02417245926327148</v>
-      </c>
-      <c r="T30">
-        <v>0.02417245926327148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.01139766666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.034193</v>
-      </c>
-      <c r="I31">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="J31">
-        <v>0.04710688011462266</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.762848333333333</v>
-      </c>
-      <c r="N31">
-        <v>5.288544999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.2209808650626312</v>
-      </c>
-      <c r="P31">
-        <v>0.2209808650626312</v>
-      </c>
-      <c r="Q31">
-        <v>0.02009235768722222</v>
-      </c>
-      <c r="R31">
-        <v>0.180831219185</v>
-      </c>
-      <c r="S31">
-        <v>0.01040971911813097</v>
-      </c>
-      <c r="T31">
-        <v>0.01040971911813097</v>
+        <v>0.01677912760821723</v>
       </c>
     </row>
   </sheetData>
